--- a/Datenstrukturen und Algorithmen/Übungsserie 4/Abgabe Übungsserie 4/Auswertung.xlsx
+++ b/Datenstrukturen und Algorithmen/Übungsserie 4/Abgabe Übungsserie 4/Auswertung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\myCloud\UNIBE\Informatik\Datenstrukturen und Algorithmen\Git_mit_Sandro\Unistuff\Datenstrukturen und Algorithmen\Übungsserie 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\myCloud\UNIBE\Informatik\Datenstrukturen und Algorithmen\Git_mit_Sandro\Unistuff\Datenstrukturen und Algorithmen\Übungsserie 4\Abgabe Übungsserie 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C28CFC-75B7-4F85-A99D-21CB84BADA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C47587-B402-49A3-B96D-38855AA0435D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{89433ED0-C575-4A2C-9330-E91D1A5E5335}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>Number of Strings</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Time improved (ms)</t>
+  </si>
+  <si>
+    <t>d = 75</t>
+  </si>
+  <si>
+    <t>d = 150</t>
   </si>
 </sst>
 </file>
@@ -177,12 +183,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>RadixSort</c:v>
+            <c:v>RadixSort [d=150]</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -193,11 +201,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -274,12 +286,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>improved RadixSort</c:v>
+            <c:v>improved RadixSort [d=150]</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -290,11 +305,17 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -364,6 +385,215 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1A11-4AAE-B6C3-DD46732E485B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>RadixSort [d=75]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$T$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$T$22:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>755.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1645.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3889.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DBD4-4461-8413-D21C70C996AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>improved RadixSort [d=75]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$3:$AI$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>640000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$AC$22:$AI$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2408.1999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DBD4-4461-8413-D21C70C996AE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1260,16 +1490,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1594,19 +1824,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E60AF18-65DD-4B88-9EF0-B324F3C62B61}">
-  <dimension ref="A3:Q22"/>
+  <dimension ref="A2:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1655,8 +1895,56 @@
       <c r="Q3">
         <v>640000</v>
       </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>10000</v>
+      </c>
+      <c r="U3">
+        <v>20000</v>
+      </c>
+      <c r="V3">
+        <v>40000</v>
+      </c>
+      <c r="W3">
+        <v>80000</v>
+      </c>
+      <c r="X3">
+        <v>160000</v>
+      </c>
+      <c r="Y3">
+        <v>320000</v>
+      </c>
+      <c r="Z3">
+        <v>640000</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>10000</v>
+      </c>
+      <c r="AD3">
+        <v>20000</v>
+      </c>
+      <c r="AE3">
+        <v>40000</v>
+      </c>
+      <c r="AF3">
+        <v>80000</v>
+      </c>
+      <c r="AG3">
+        <v>160000</v>
+      </c>
+      <c r="AH3">
+        <v>320000</v>
+      </c>
+      <c r="AI3">
+        <v>640000</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1705,8 +1993,56 @@
       <c r="Q5">
         <v>4981</v>
       </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>78</v>
+      </c>
+      <c r="U5">
+        <v>83</v>
+      </c>
+      <c r="V5">
+        <v>165</v>
+      </c>
+      <c r="W5">
+        <v>331</v>
+      </c>
+      <c r="X5">
+        <v>717</v>
+      </c>
+      <c r="Y5">
+        <v>1558</v>
+      </c>
+      <c r="Z5">
+        <v>3669</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>62</v>
+      </c>
+      <c r="AD5">
+        <v>29</v>
+      </c>
+      <c r="AE5">
+        <v>100</v>
+      </c>
+      <c r="AF5">
+        <v>177</v>
+      </c>
+      <c r="AG5">
+        <v>440</v>
+      </c>
+      <c r="AH5">
+        <v>1028</v>
+      </c>
+      <c r="AI5">
+        <v>2436</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>80</v>
       </c>
@@ -1749,8 +2085,50 @@
       <c r="Q6">
         <v>5043</v>
       </c>
+      <c r="T6">
+        <v>65</v>
+      </c>
+      <c r="U6">
+        <v>42</v>
+      </c>
+      <c r="V6">
+        <v>153</v>
+      </c>
+      <c r="W6">
+        <v>327</v>
+      </c>
+      <c r="X6">
+        <v>765</v>
+      </c>
+      <c r="Y6">
+        <v>1652</v>
+      </c>
+      <c r="Z6">
+        <v>3995</v>
+      </c>
+      <c r="AC6">
+        <v>38</v>
+      </c>
+      <c r="AD6">
+        <v>25</v>
+      </c>
+      <c r="AE6">
+        <v>159</v>
+      </c>
+      <c r="AF6">
+        <v>185</v>
+      </c>
+      <c r="AG6">
+        <v>473</v>
+      </c>
+      <c r="AH6">
+        <v>1065</v>
+      </c>
+      <c r="AI6">
+        <v>2451</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>99</v>
       </c>
@@ -1793,8 +2171,50 @@
       <c r="Q7">
         <v>4976</v>
       </c>
+      <c r="T7">
+        <v>55</v>
+      </c>
+      <c r="U7">
+        <v>42</v>
+      </c>
+      <c r="V7">
+        <v>123</v>
+      </c>
+      <c r="W7">
+        <v>316</v>
+      </c>
+      <c r="X7">
+        <v>805</v>
+      </c>
+      <c r="Y7">
+        <v>1781</v>
+      </c>
+      <c r="Z7">
+        <v>4121</v>
+      </c>
+      <c r="AC7">
+        <v>38</v>
+      </c>
+      <c r="AD7">
+        <v>23</v>
+      </c>
+      <c r="AE7">
+        <v>71</v>
+      </c>
+      <c r="AF7">
+        <v>154</v>
+      </c>
+      <c r="AG7">
+        <v>500</v>
+      </c>
+      <c r="AH7">
+        <v>1078</v>
+      </c>
+      <c r="AI7">
+        <v>2389</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>81</v>
       </c>
@@ -1837,8 +2257,50 @@
       <c r="Q8">
         <v>4919</v>
       </c>
+      <c r="T8">
+        <v>59</v>
+      </c>
+      <c r="U8">
+        <v>39</v>
+      </c>
+      <c r="V8">
+        <v>125</v>
+      </c>
+      <c r="W8">
+        <v>315</v>
+      </c>
+      <c r="X8">
+        <v>730</v>
+      </c>
+      <c r="Y8">
+        <v>1546</v>
+      </c>
+      <c r="Z8">
+        <v>3547</v>
+      </c>
+      <c r="AC8">
+        <v>37</v>
+      </c>
+      <c r="AD8">
+        <v>26</v>
+      </c>
+      <c r="AE8">
+        <v>73</v>
+      </c>
+      <c r="AF8">
+        <v>158</v>
+      </c>
+      <c r="AG8">
+        <v>470</v>
+      </c>
+      <c r="AH8">
+        <v>1070</v>
+      </c>
+      <c r="AI8">
+        <v>2382</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>83</v>
       </c>
@@ -1881,8 +2343,50 @@
       <c r="Q9">
         <v>5103</v>
       </c>
+      <c r="T9">
+        <v>65</v>
+      </c>
+      <c r="U9">
+        <v>40</v>
+      </c>
+      <c r="V9">
+        <v>126</v>
+      </c>
+      <c r="W9">
+        <v>314</v>
+      </c>
+      <c r="X9">
+        <v>760</v>
+      </c>
+      <c r="Y9">
+        <v>1689</v>
+      </c>
+      <c r="Z9">
+        <v>4114</v>
+      </c>
+      <c r="AC9">
+        <v>42</v>
+      </c>
+      <c r="AD9">
+        <v>23</v>
+      </c>
+      <c r="AE9">
+        <v>81</v>
+      </c>
+      <c r="AF9">
+        <v>163</v>
+      </c>
+      <c r="AG9">
+        <v>437</v>
+      </c>
+      <c r="AH9">
+        <v>1094</v>
+      </c>
+      <c r="AI9">
+        <v>2383</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1944,6 +2448,68 @@
       <c r="Q22">
         <f t="shared" si="1"/>
         <v>5004.3999999999996</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:Z22" si="2">AVERAGE(T5:T20)</f>
+        <v>64.400000000000006</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>49.2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>138.4</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>320.60000000000002</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>755.4</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="2"/>
+        <v>1645.2</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="2"/>
+        <v>3889.2</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" ref="AC22:AI22" si="3">AVERAGE(AC5:AC20)</f>
+        <v>43.4</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="3"/>
+        <v>25.2</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="3"/>
+        <v>96.8</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="3"/>
+        <v>167.4</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="3"/>
+        <v>1067</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="3"/>
+        <v>2408.1999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2067,18 +2633,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2098,6 +2664,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67140402-C9B5-4ED9-A9BB-2E983D89737B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFC56FB4-1658-453B-9C7A-E29603295B68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2110,12 +2684,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67140402-C9B5-4ED9-A9BB-2E983D89737B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>